--- a/db/systemAccounts.xlsx
+++ b/db/systemAccounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY CODES\POS_SYSTEM\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0D379-EDFE-4164-9D22-7FB8C2F0E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F80375-506B-4205-A089-666F99B2AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="2895" windowWidth="27315" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>userID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>userType</t>
   </si>
@@ -43,9 +40,6 @@
     <t>123</t>
   </si>
   <si>
-    <t>crew</t>
-  </si>
-  <si>
     <t>tralalelo</t>
   </si>
   <si>
@@ -53,6 +47,36 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>givenName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>pcu</t>
+  </si>
+  <si>
+    <t>manila</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>trala</t>
+  </si>
+  <si>
+    <t>lelo</t>
+  </si>
+  <si>
+    <t>nimda</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -424,71 +448,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>